--- a/visuals_r2l_attack_length_stats.xlsx
+++ b/visuals_r2l_attack_length_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AE385A-88FC-407C-8DD9-314491986802}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6486841F-8BD0-9040-A4DC-0C76D9292F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32957E8D-E194-48BA-99EF-65A1F769EFBD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{32957E8D-E194-48BA-99EF-65A1F769EFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2461,16 +2461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5EEF9B-D2EB-4746-8BA2-446389458560}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I40" sqref="H1:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.14066713280166707</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0.88755020100000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.13366336600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>6.9767441999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>300</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>7.6923077000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>700</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0.111234705</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>900</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0.134615385</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.18372703400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.107491857</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H11">
         <v>63</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0.253968254</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H12">
         <v>12</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>8.3333332999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H13">
         <v>84</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0.184826036</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H14">
         <f>SUM(4020-4308)*-1 + 1</f>
         <v>289</v>
@@ -2683,7 +2683,7 @@
         <v>0.23875432499999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H15">
         <f>SUM(5530-5854)*-1 + 1</f>
         <v>325</v>
@@ -2692,7 +2692,7 @@
         <v>9.5384615000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H16">
         <f>SUM(7342-7419)*-1 + 1</f>
         <v>78</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17">
         <f>(8631-10642)*-1+1</f>
         <v>2012</v>
@@ -2710,7 +2710,7 @@
         <v>2.3359840999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18">
         <f>(12652-12742)*-1+1</f>
         <v>91</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19">
         <f>(13578-13600)*-1+1</f>
         <v>23</v>
@@ -2728,7 +2728,7 @@
         <v>0.56521739100000001</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20">
         <f>(13967-14313)*-1+1</f>
         <v>347</v>
@@ -2737,7 +2737,7 @@
         <v>0.29682997100000003</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21">
         <f>(14710-14763)*-1+1</f>
         <v>54</v>
@@ -2746,7 +2746,7 @@
         <v>1.8518519000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H22">
         <f>(15835-16852)*-1+1</f>
         <v>1018</v>
@@ -2755,7 +2755,7 @@
         <v>0.18860510799999999</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H23">
         <f>(16886-16918)*-1+1</f>
         <v>33</v>
@@ -2764,7 +2764,7 @@
         <v>3.0303030000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H24">
         <f>(18661-18750)*-1+1</f>
         <v>90</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>(19149-19459)*-1+1</f>
         <v>311</v>
@@ -2782,7 +2782,7 @@
         <v>0.112540193</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H26">
         <f>SUM(19885-20004)*-1 + 1</f>
         <v>120</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H27">
         <f>SUM(22427-22494)*-1 + 1</f>
         <v>68</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H28">
         <f>SUM(22859-23223)*-1 + 1</f>
         <v>365</v>
@@ -2809,7 +2809,7 @@
         <v>0.13424657500000001</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H29">
         <f>(24212-24842)*-1+1</f>
         <v>631</v>
@@ -2818,7 +2818,7 @@
         <v>1.7432646999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>(25540-25928)*-1+1</f>
         <v>389</v>
@@ -2827,7 +2827,7 @@
         <v>2.8277634999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H31">
         <f>(26841-27666)*-1+1</f>
         <v>826</v>
@@ -2836,7 +2836,7 @@
         <v>1.2106538E-2</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H32">
         <f>(28653-28815)*-1+1</f>
         <v>163</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33">
         <f>(29004-29027)*-1+1</f>
         <v>24</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34">
         <f>(29183-29315)*-1+1</f>
         <v>133</v>
@@ -2863,7 +2863,7 @@
         <v>0.30075188000000003</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35">
         <f>(33251-33507)*-1+1</f>
         <v>257</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36">
         <f>(35234-35313)*-1+1</f>
         <v>80</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37">
         <f>(35604-35819)*-1+1</f>
         <v>216</v>
@@ -2890,7 +2890,7 @@
         <v>8.1491643000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38">
         <f>(36937-36979)*-1+1</f>
         <v>43</v>
@@ -2899,7 +2899,7 @@
         <v>0.46511627900000002</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39">
         <f>(37224-37477)*-1+1</f>
         <v>254</v>
@@ -2908,7 +2908,7 @@
         <v>0.200787402</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H40">
         <f>(53679-53737)*-1+1</f>
         <v>59</v>
